--- a/angular/src/assets/sampleFiles/Import_dedicated_Trip_details.xlsx
+++ b/angular/src/assets/sampleFiles/Import_dedicated_Trip_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\tachyon-core\angular\src\assets\sampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\tachyon-core1\angular\src\assets\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,14 +37,6 @@
 الرقم المرجعي للرحلة</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick-up date start  (yyyy/MM/dd)
-تاريخ بداية التحميل </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pick-up date end  (yyyy/MM/dd)
-تاريخ نهاية التحميل </t>
-  </si>
-  <si>
     <t xml:space="preserve">Approximate total value of goods
 القيمة التقريبة للبضاعة </t>
   </si>
@@ -91,6 +83,14 @@
   <si>
     <t>Truck* (plate number)
 الشاحنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date start  (dd/MM/yyyy)
+تاريخ بداية التحميل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick-up date end  (dd/MM/yyyy)
+تاريخ نهاية التحميل </t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -536,46 +536,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1">
